--- a/User Files/Master Tracklist.xlsx
+++ b/User Files/Master Tracklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B98312F-68D1-4B0C-B8D1-A969079CDA82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96CCA4D-4FDF-473A-B380-610CF9C424B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SCVL</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>4,7,10,1</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>04/04/2019: Why would anyone buys shoes from here when there are excellent quality shoes available in Costso</t>
   </si>
 </sst>
 </file>
@@ -352,27 +358,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="98.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -381,6 +391,9 @@
       </c>
       <c r="H2" t="s">
         <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
